--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/10/seed5/result_data_RandomForest.xlsx
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.67450000000002</v>
+        <v>-14.64</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
